--- a/ExcelDocuments/arabic_letters_without_diacritics.xlsx
+++ b/ExcelDocuments/arabic_letters_without_diacritics.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Magdy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MST\MST\ExcelDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>ئ</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>bos</t>
+  </si>
+  <si>
+    <t>eos</t>
   </si>
 </sst>
 </file>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,6 +808,30 @@
         <v>37</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
